--- a/Data handler/full_model/Hydrogen.xlsx
+++ b/Data handler/full_model/Hydrogen.xlsx
@@ -3994,8 +3994,8 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101005D7E641A7C6DC643BD6AA67ED4899C86" ma:contentTypeVersion="14" ma:contentTypeDescription="Opprett et nytt dokument." ma:contentTypeScope="" ma:versionID="4cd9b23512e5ed5f06fd653b087fad24">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1603ae16-0075-49fc-8eb8-355ddc15d60c" xmlns:ns3="5ad9d0b0-d7b7-41ff-b881-929c6caa05f1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a0fd60b66c697f161fb7f5dd5e750562" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101005D7E641A7C6DC643BD6AA67ED4899C86" ma:contentTypeVersion="13" ma:contentTypeDescription="Opprett et nytt dokument." ma:contentTypeScope="" ma:versionID="d479b00409af6e981aacf0e296b2ead4">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1603ae16-0075-49fc-8eb8-355ddc15d60c" xmlns:ns3="5ad9d0b0-d7b7-41ff-b881-929c6caa05f1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="61f3bd59c311ef453d9cb08d9ad24a36" ns2:_="" ns3:_="">
     <xsd:import namespace="1603ae16-0075-49fc-8eb8-355ddc15d60c"/>
     <xsd:import namespace="5ad9d0b0-d7b7-41ff-b881-929c6caa05f1"/>
     <xsd:element name="properties">
@@ -4015,7 +4015,6 @@
                 <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -4068,11 +4067,6 @@
     <xsd:element name="MediaServiceSearchProperties" ma:index="19" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="20" nillable="true" ma:displayName="MediaServiceDateTaken" ma:description="" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -4226,7 +4220,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC515430-F426-44A4-8085-30AA1DB8A717}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5031D97-AF5A-4BA2-9AED-4BD22FCE3ECC}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>

--- a/Data handler/full_model/Hydrogen.xlsx
+++ b/Data handler/full_model/Hydrogen.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\erlenhor\AppData\Local\Temp\fz3temp-2\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A72413F-2481-4FE9-95C4-C57EF76127A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="17" activeTab="22" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Generators" sheetId="1" r:id="rId1"/>
@@ -31,12 +37,12 @@
     <sheet name="StorageFixedOMCost" sheetId="22" r:id="rId22"/>
     <sheet name="StorageMaxCapacity" sheetId="23" r:id="rId23"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="106">
   <si>
     <t>Generators</t>
   </si>
@@ -158,9 +164,6 @@
     <t>Slovakia</t>
   </si>
   <si>
-    <t>Energyhub EU</t>
-  </si>
-  <si>
     <t>ReformerLocations</t>
   </si>
   <si>
@@ -327,6 +330,9 @@
   </si>
   <si>
     <t>Capital cost (EUR/ton)</t>
+  </si>
+  <si>
+    <t>Capital cost (EUR/kg)</t>
   </si>
   <si>
     <t>Source: 5% of capital cost</t>
@@ -359,8 +365,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -397,6 +403,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -443,7 +457,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -475,9 +489,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -509,6 +541,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -684,29 +734,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -717,50 +767,50 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
         <v>64</v>
       </c>
-      <c r="B3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B4">
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B5">
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B6">
         <v>25</v>
@@ -772,262 +822,295 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+  <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4">
-        <v>8.692249376558605</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>8.6922493765586051</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B5">
         <v>2</v>
       </c>
       <c r="C5">
-        <v>8.692249376558605</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>8.6922493765586051</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B6">
         <v>3</v>
       </c>
       <c r="C6">
-        <v>8.692249376558605</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>8.6922493765586051</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B7">
         <v>4</v>
       </c>
       <c r="C7">
-        <v>8.692249376558605</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>8.6922493765586051</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B8">
         <v>5</v>
       </c>
       <c r="C8">
-        <v>8.692249376558605</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>8.6922493765586051</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B9">
         <v>6</v>
       </c>
       <c r="C9">
-        <v>8.692249376558605</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>8.6922493765586051</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B10">
         <v>7</v>
       </c>
       <c r="C10">
-        <v>8.692249376558605</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>8.6922493765586051</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B11">
+        <v>8</v>
+      </c>
+      <c r="C11">
+        <v>8.6922493765586051</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12">
         <v>1</v>
       </c>
-      <c r="C11">
-        <v>0.9120276807980048</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="s">
-        <v>44</v>
-      </c>
-      <c r="B12">
+      <c r="C12">
+        <v>0.91202768079800478</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13">
         <v>2</v>
       </c>
-      <c r="C12">
-        <v>0.9120276807980048</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>44</v>
-      </c>
-      <c r="B13">
+      <c r="C13">
+        <v>0.91202768079800478</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14">
         <v>3</v>
       </c>
-      <c r="C13">
-        <v>0.9120276807980048</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>44</v>
-      </c>
-      <c r="B14">
+      <c r="C14">
+        <v>0.91202768079800478</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15">
         <v>4</v>
       </c>
-      <c r="C14">
-        <v>0.9120276807980048</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
-        <v>44</v>
-      </c>
-      <c r="B15">
+      <c r="C15">
+        <v>0.91202768079800478</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16">
         <v>5</v>
       </c>
-      <c r="C15">
-        <v>0.9120276807980048</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" t="s">
-        <v>44</v>
-      </c>
-      <c r="B16">
+      <c r="C16">
+        <v>0.91202768079800478</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17">
         <v>6</v>
       </c>
-      <c r="C16">
-        <v>0.9120276807980048</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" t="s">
-        <v>44</v>
-      </c>
-      <c r="B17">
+      <c r="C17">
+        <v>0.91202768079800478</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18">
         <v>7</v>
       </c>
-      <c r="C17">
-        <v>0.9120276807980048</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" t="s">
-        <v>45</v>
-      </c>
-      <c r="B18">
+      <c r="C18">
+        <v>0.91202768079800478</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19">
+        <v>8</v>
+      </c>
+      <c r="C19">
+        <v>0.91202768079800478</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20">
         <v>1</v>
       </c>
-      <c r="C18">
-        <v>0.5900193516209473</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
-        <v>45</v>
-      </c>
-      <c r="B19">
+      <c r="C20">
+        <v>0.59001935162094732</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21">
         <v>2</v>
       </c>
-      <c r="C19">
-        <v>0.5752688678304236</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" t="s">
-        <v>45</v>
-      </c>
-      <c r="B20">
+      <c r="C21">
+        <v>0.57526886783042364</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22">
         <v>3</v>
-      </c>
-      <c r="C20">
-        <v>0.553143142144638</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" t="s">
-        <v>45</v>
-      </c>
-      <c r="B21">
-        <v>4</v>
-      </c>
-      <c r="C21">
-        <v>0.553143142144638</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
-        <v>45</v>
-      </c>
-      <c r="B22">
-        <v>5</v>
       </c>
       <c r="C22">
         <v>0.553143142144638</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B23">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C23">
         <v>0.553143142144638</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B24">
+        <v>5</v>
+      </c>
+      <c r="C24">
+        <v>0.553143142144638</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>44</v>
+      </c>
+      <c r="B25">
+        <v>6</v>
+      </c>
+      <c r="C25">
+        <v>0.553143142144638</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>44</v>
+      </c>
+      <c r="B26">
         <v>7</v>
       </c>
-      <c r="C24">
+      <c r="C26">
+        <v>0.553143142144638</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>44</v>
+      </c>
+      <c r="B27">
+        <v>8</v>
+      </c>
+      <c r="C27">
         <v>0.553143142144638</v>
       </c>
     </row>
@@ -1037,52 +1120,52 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+  <dimension ref="A1:P27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="N1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O1">
         <v>120</v>
       </c>
       <c r="P1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>68</v>
+      </c>
+      <c r="O2">
+        <v>3.3300000000000003E-2</v>
+      </c>
+      <c r="P2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" t="s">
         <v>69</v>
       </c>
-      <c r="O2">
-        <v>0.0333</v>
-      </c>
-      <c r="P2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16">
-      <c r="A3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16">
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -1091,9 +1174,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B5">
         <v>2</v>
@@ -1102,9 +1185,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B6">
         <v>3</v>
@@ -1113,9 +1196,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B7">
         <v>4</v>
@@ -1124,9 +1207,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B8">
         <v>5</v>
@@ -1135,9 +1218,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B9">
         <v>6</v>
@@ -1146,9 +1229,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B10">
         <v>7</v>
@@ -1157,158 +1240,191 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B11">
+        <v>8</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12">
         <v>1</v>
       </c>
-      <c r="C11">
-        <v>8.208249127182045</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16">
-      <c r="A12" t="s">
-        <v>44</v>
-      </c>
-      <c r="B12">
+      <c r="C12">
+        <v>8.2082491271820448</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13">
         <v>2</v>
       </c>
-      <c r="C12">
-        <v>8.208249127182045</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16">
-      <c r="A13" t="s">
-        <v>44</v>
-      </c>
-      <c r="B13">
+      <c r="C13">
+        <v>8.2082491271820448</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14">
         <v>3</v>
       </c>
-      <c r="C13">
-        <v>8.208249127182045</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16">
-      <c r="A14" t="s">
-        <v>44</v>
-      </c>
-      <c r="B14">
+      <c r="C14">
+        <v>8.2082491271820448</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15">
         <v>4</v>
       </c>
-      <c r="C14">
-        <v>8.208249127182045</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16">
-      <c r="A15" t="s">
-        <v>44</v>
-      </c>
-      <c r="B15">
+      <c r="C15">
+        <v>8.2082491271820448</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16">
         <v>5</v>
       </c>
-      <c r="C15">
-        <v>8.208249127182045</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16">
-      <c r="A16" t="s">
-        <v>44</v>
-      </c>
-      <c r="B16">
+      <c r="C16">
+        <v>8.2082491271820448</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17">
         <v>6</v>
       </c>
-      <c r="C16">
-        <v>8.208249127182045</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" t="s">
-        <v>44</v>
-      </c>
-      <c r="B17">
+      <c r="C17">
+        <v>8.2082491271820448</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18">
         <v>7</v>
       </c>
-      <c r="C17">
-        <v>8.208249127182045</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" t="s">
-        <v>45</v>
-      </c>
-      <c r="B18">
+      <c r="C18">
+        <v>8.2082491271820448</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19">
+        <v>8</v>
+      </c>
+      <c r="C19">
+        <v>8.2082491271820448</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20">
         <v>1</v>
       </c>
-      <c r="C18">
-        <v>7.838828528678306</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
-        <v>45</v>
-      </c>
-      <c r="B19">
+      <c r="C20">
+        <v>7.8388285286783059</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21">
         <v>2</v>
       </c>
-      <c r="C19">
-        <v>7.642857815461348</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" t="s">
-        <v>45</v>
-      </c>
-      <c r="B20">
+      <c r="C21">
+        <v>7.6428578154613476</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22">
         <v>3</v>
       </c>
-      <c r="C20">
-        <v>7.348901745635911</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" t="s">
-        <v>45</v>
-      </c>
-      <c r="B21">
+      <c r="C22">
+        <v>7.3489017456359109</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23">
         <v>4</v>
       </c>
-      <c r="C21">
-        <v>7.348901745635911</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
-        <v>45</v>
-      </c>
-      <c r="B22">
+      <c r="C23">
+        <v>7.3489017456359109</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24">
         <v>5</v>
       </c>
-      <c r="C22">
-        <v>7.348901745635911</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" t="s">
-        <v>45</v>
-      </c>
-      <c r="B23">
+      <c r="C24">
+        <v>7.3489017456359109</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>44</v>
+      </c>
+      <c r="B25">
         <v>6</v>
       </c>
-      <c r="C23">
-        <v>7.348901745635911</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" t="s">
-        <v>45</v>
-      </c>
-      <c r="B24">
+      <c r="C25">
+        <v>7.3489017456359109</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>44</v>
+      </c>
+      <c r="B26">
         <v>7</v>
       </c>
-      <c r="C24">
-        <v>7.348901745635911</v>
+      <c r="C26">
+        <v>7.3489017456359109</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>44</v>
+      </c>
+      <c r="B27">
+        <v>8</v>
+      </c>
+      <c r="C27">
+        <v>7.3489017456359109</v>
       </c>
     </row>
   </sheetData>
@@ -1317,32 +1433,32 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1350,7 +1466,7 @@
         <v>925000</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
@@ -1358,7 +1474,7 @@
         <v>815000</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3</v>
       </c>
@@ -1366,7 +1482,7 @@
         <v>650000</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>4</v>
       </c>
@@ -1374,7 +1490,7 @@
         <v>650000</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>5</v>
       </c>
@@ -1382,7 +1498,7 @@
         <v>610000</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>6</v>
       </c>
@@ -1390,11 +1506,19 @@
         <v>490000</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>7</v>
       </c>
       <c r="B10">
+        <v>450000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11">
         <v>450000</v>
       </c>
     </row>
@@ -1404,32 +1528,32 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1437,7 +1561,7 @@
         <v>37000</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
@@ -1445,7 +1569,7 @@
         <v>32600</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3</v>
       </c>
@@ -1453,7 +1577,7 @@
         <v>26000</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>4</v>
       </c>
@@ -1461,7 +1585,7 @@
         <v>26000</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>5</v>
       </c>
@@ -1469,7 +1593,7 @@
         <v>24400</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>6</v>
       </c>
@@ -1477,11 +1601,19 @@
         <v>19600</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>7</v>
       </c>
       <c r="B10">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11">
         <v>18000</v>
       </c>
     </row>
@@ -1491,32 +1623,32 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1524,7 +1656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
@@ -1532,7 +1664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3</v>
       </c>
@@ -1540,7 +1672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>4</v>
       </c>
@@ -1548,7 +1680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>5</v>
       </c>
@@ -1556,7 +1688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>6</v>
       </c>
@@ -1564,11 +1696,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>7</v>
       </c>
       <c r="B10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11">
         <v>0</v>
       </c>
     </row>
@@ -1578,29 +1718,29 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>25</v>
       </c>
@@ -1611,32 +1751,32 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1644,52 +1784,60 @@
         <v>57.46551724137931</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
       <c r="B5">
-        <v>54.83350881811003</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+        <v>54.833508818110033</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3</v>
       </c>
       <c r="B6">
-        <v>50.8854961832061</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>50.885496183206101</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>4</v>
       </c>
       <c r="B7">
-        <v>50.8854961832061</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>50.885496183206101</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>5</v>
       </c>
       <c r="B8">
-        <v>50.51133812303547</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>50.511338123035472</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>6</v>
       </c>
       <c r="B9">
-        <v>49.38886394252357</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>49.388863942523571</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>7</v>
       </c>
       <c r="B10">
-        <v>49.01470588235294</v>
+        <v>49.014705882352942</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <v>49.014705882352942</v>
       </c>
     </row>
   </sheetData>
@@ -1698,85 +1846,93 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4">
-        <v>8760.461538461537</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>8760.4615384615372</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
       <c r="B5">
-        <v>8760.461538461537</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+        <v>8760.4615384615372</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3</v>
       </c>
       <c r="B6">
-        <v>8760.461538461537</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>8760.4615384615372</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>4</v>
       </c>
       <c r="B7">
-        <v>8760.461538461537</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>8760.4615384615372</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>5</v>
       </c>
       <c r="B8">
-        <v>8760.461538461537</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>8760.4615384615372</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>6</v>
       </c>
       <c r="B9">
-        <v>8760.461538461537</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>8760.4615384615372</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>7</v>
       </c>
       <c r="B10">
-        <v>8760.461538461537</v>
+        <v>8760.4615384615372</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <v>8760.4615384615372</v>
       </c>
     </row>
   </sheetData>
@@ -1785,85 +1941,93 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4">
-        <v>87.60461538461537</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>87.604615384615371</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
       <c r="B5">
-        <v>87.60461538461537</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+        <v>87.604615384615371</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3</v>
       </c>
       <c r="B6">
-        <v>87.60461538461537</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>87.604615384615371</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>4</v>
       </c>
       <c r="B7">
-        <v>87.60461538461537</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>87.604615384615371</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>5</v>
       </c>
       <c r="B8">
-        <v>87.60461538461537</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>87.604615384615371</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>6</v>
       </c>
       <c r="B9">
-        <v>87.60461538461537</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>87.604615384615371</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>7</v>
       </c>
       <c r="B10">
-        <v>87.60461538461537</v>
+        <v>87.604615384615371</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <v>87.604615384615371</v>
       </c>
     </row>
   </sheetData>
@@ -1872,196 +2036,193 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A37"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:A36"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>39</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1">
-      <c r="A37" t="s">
-        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -2070,31 +2231,31 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>0.0008551597633136093</v>
+        <v>8.5515976331360934E-4</v>
       </c>
     </row>
   </sheetData>
@@ -2103,85 +2264,120 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="E3" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4">
         <v>25500</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="E4">
+        <v>25.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
       <c r="B5">
         <v>25500</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="E5">
+        <v>25.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3</v>
       </c>
       <c r="B6">
         <v>25500</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
+      <c r="E6">
+        <v>25.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>4</v>
       </c>
       <c r="B7">
         <v>25500</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
+      <c r="E7">
+        <v>25.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>5</v>
       </c>
       <c r="B8">
         <v>25500</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
+      <c r="E8">
+        <v>25.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>6</v>
       </c>
       <c r="B9">
         <v>25500</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
+      <c r="E9">
+        <v>25.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>7</v>
       </c>
       <c r="B10">
         <v>25500</v>
+      </c>
+      <c r="E10">
+        <v>25.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <v>25500</v>
+      </c>
+      <c r="E11">
+        <v>25.5</v>
       </c>
     </row>
   </sheetData>
@@ -2190,32 +2386,32 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -2223,7 +2419,7 @@
         <v>1275</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
@@ -2231,7 +2427,7 @@
         <v>1275</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3</v>
       </c>
@@ -2239,7 +2435,7 @@
         <v>1275</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>4</v>
       </c>
@@ -2247,7 +2443,7 @@
         <v>1275</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>5</v>
       </c>
@@ -2255,7 +2451,7 @@
         <v>1275</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>6</v>
       </c>
@@ -2263,11 +2459,19 @@
         <v>1275</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>7</v>
       </c>
       <c r="B10">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11">
         <v>1275</v>
       </c>
     </row>
@@ -2277,24 +2481,26 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
+  <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>102</v>
       </c>
@@ -2308,7 +2514,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -2319,21 +2525,21 @@
         <v>39.5</v>
       </c>
       <c r="K4">
-        <v>30030030.03003003</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+        <v>30030030.030030031</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
       <c r="B5">
-        <v>39039.03903903904</v>
+        <v>39039.039039039038</v>
       </c>
       <c r="C5">
         <v>1.3</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -2344,18 +2550,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>17</v>
       </c>
       <c r="B7">
-        <v>111111.1111111111</v>
+        <v>111111.11111111109</v>
       </c>
       <c r="C7">
         <v>3.7</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>29</v>
       </c>
@@ -2366,7 +2572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>32</v>
       </c>
@@ -2377,7 +2583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -2388,25 +2594,14 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>75075.075075075074</v>
       </c>
       <c r="C11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12">
-        <v>75075.07507507507</v>
-      </c>
-      <c r="C12">
         <v>2.5</v>
       </c>
     </row>
@@ -2416,189 +2611,189 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:A36"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A13" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>39</v>
       </c>
@@ -2609,31 +2804,31 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -2642,37 +2837,37 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
         <v>48</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>49</v>
       </c>
-      <c r="C3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -2681,9 +2876,9 @@
         <v>805000</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B5">
         <v>2</v>
@@ -2692,9 +2887,9 @@
         <v>805000</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B6">
         <v>3</v>
@@ -2703,9 +2898,9 @@
         <v>805000</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B7">
         <v>4</v>
@@ -2714,9 +2909,9 @@
         <v>805000</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B8">
         <v>5</v>
@@ -2725,9 +2920,9 @@
         <v>805000</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B9">
         <v>6</v>
@@ -2736,9 +2931,9 @@
         <v>805000</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B10">
         <v>7</v>
@@ -2747,157 +2942,190 @@
         <v>805000</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B11">
+        <v>8</v>
+      </c>
+      <c r="C11">
+        <v>805000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12">
         <v>1</v>
       </c>
-      <c r="C11">
+      <c r="C12">
         <v>1487000</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="s">
-        <v>44</v>
-      </c>
-      <c r="B12">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13">
         <v>2</v>
       </c>
-      <c r="C12">
+      <c r="C13">
         <v>1373800</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>44</v>
-      </c>
-      <c r="B13">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14">
         <v>3</v>
-      </c>
-      <c r="C13">
-        <v>1204000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>44</v>
-      </c>
-      <c r="B14">
-        <v>4</v>
       </c>
       <c r="C14">
         <v>1204000</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B15">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C15">
         <v>1204000</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B16">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C16">
         <v>1204000</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B17">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C17">
         <v>1204000</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B18">
+        <v>7</v>
+      </c>
+      <c r="C18">
+        <v>1204000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19">
+        <v>8</v>
+      </c>
+      <c r="C19">
+        <v>1204000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20">
         <v>1</v>
       </c>
-      <c r="C18">
+      <c r="C20">
         <v>830000</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
-        <v>45</v>
-      </c>
-      <c r="B19">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21">
         <v>2</v>
       </c>
-      <c r="C19">
+      <c r="C21">
         <v>798000</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
-      <c r="A20" t="s">
-        <v>45</v>
-      </c>
-      <c r="B20">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22">
         <v>3</v>
-      </c>
-      <c r="C20">
-        <v>750000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" t="s">
-        <v>45</v>
-      </c>
-      <c r="B21">
-        <v>4</v>
-      </c>
-      <c r="C21">
-        <v>750000</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
-        <v>45</v>
-      </c>
-      <c r="B22">
-        <v>5</v>
       </c>
       <c r="C22">
         <v>750000</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B23">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C23">
         <v>750000</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B24">
+        <v>5</v>
+      </c>
+      <c r="C24">
+        <v>750000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>44</v>
+      </c>
+      <c r="B25">
+        <v>6</v>
+      </c>
+      <c r="C25">
+        <v>750000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>44</v>
+      </c>
+      <c r="B26">
         <v>7</v>
       </c>
-      <c r="C24">
+      <c r="C26">
+        <v>750000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>44</v>
+      </c>
+      <c r="B27">
+        <v>8</v>
+      </c>
+      <c r="C27">
         <v>750000</v>
       </c>
     </row>
@@ -2907,37 +3135,37 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -2946,9 +3174,9 @@
         <v>37800</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B5">
         <v>2</v>
@@ -2957,9 +3185,9 @@
         <v>37800</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B6">
         <v>3</v>
@@ -2968,9 +3196,9 @@
         <v>37800</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B7">
         <v>4</v>
@@ -2979,9 +3207,9 @@
         <v>37800</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B8">
         <v>5</v>
@@ -2990,9 +3218,9 @@
         <v>37800</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B9">
         <v>6</v>
@@ -3001,9 +3229,9 @@
         <v>37800</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B10">
         <v>7</v>
@@ -3012,157 +3240,190 @@
         <v>37800</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B11">
+        <v>8</v>
+      </c>
+      <c r="C11">
+        <v>37800</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12">
         <v>1</v>
       </c>
-      <c r="C11">
+      <c r="C12">
         <v>44600</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="s">
-        <v>44</v>
-      </c>
-      <c r="B12">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13">
         <v>2</v>
       </c>
-      <c r="C12">
+      <c r="C13">
         <v>41200</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>44</v>
-      </c>
-      <c r="B13">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14">
         <v>3</v>
-      </c>
-      <c r="C13">
-        <v>36100</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>44</v>
-      </c>
-      <c r="B14">
-        <v>4</v>
       </c>
       <c r="C14">
         <v>36100</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B15">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C15">
         <v>36100</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B16">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C16">
         <v>36100</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B17">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C17">
         <v>36100</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B18">
+        <v>7</v>
+      </c>
+      <c r="C18">
+        <v>36100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19">
+        <v>8</v>
+      </c>
+      <c r="C19">
+        <v>36100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20">
         <v>1</v>
       </c>
-      <c r="C18">
+      <c r="C20">
         <v>24900</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
-        <v>45</v>
-      </c>
-      <c r="B19">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21">
         <v>2</v>
       </c>
-      <c r="C19">
+      <c r="C21">
         <v>23820</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
-      <c r="A20" t="s">
-        <v>45</v>
-      </c>
-      <c r="B20">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22">
         <v>3</v>
-      </c>
-      <c r="C20">
-        <v>22200</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" t="s">
-        <v>45</v>
-      </c>
-      <c r="B21">
-        <v>4</v>
-      </c>
-      <c r="C21">
-        <v>22200</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
-        <v>45</v>
-      </c>
-      <c r="B22">
-        <v>5</v>
       </c>
       <c r="C22">
         <v>22200</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B23">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C23">
         <v>22200</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B24">
+        <v>5</v>
+      </c>
+      <c r="C24">
+        <v>22200</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>44</v>
+      </c>
+      <c r="B25">
+        <v>6</v>
+      </c>
+      <c r="C25">
+        <v>22200</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>44</v>
+      </c>
+      <c r="B26">
         <v>7</v>
       </c>
-      <c r="C24">
+      <c r="C26">
+        <v>22200</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>44</v>
+      </c>
+      <c r="B27">
+        <v>8</v>
+      </c>
+      <c r="C27">
         <v>22200</v>
       </c>
     </row>
@@ -3172,46 +3433,46 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H1">
         <v>120</v>
       </c>
       <c r="I1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
-      <c r="A3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -3220,9 +3481,9 @@
         <v>9.6</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B5">
         <v>2</v>
@@ -3231,9 +3492,9 @@
         <v>8.16</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B6">
         <v>3</v>
@@ -3242,9 +3503,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B7">
         <v>4</v>
@@ -3253,9 +3514,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B8">
         <v>5</v>
@@ -3264,9 +3525,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B9">
         <v>6</v>
@@ -3275,9 +3536,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B10">
         <v>7</v>
@@ -3286,157 +3547,190 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B11">
+        <v>8</v>
+      </c>
+      <c r="C11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12">
         <v>1</v>
       </c>
-      <c r="C11">
+      <c r="C12">
         <v>63.6</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
-      <c r="A12" t="s">
-        <v>44</v>
-      </c>
-      <c r="B12">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13">
         <v>2</v>
       </c>
-      <c r="C12">
+      <c r="C13">
         <v>41.52</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
-      <c r="A13" t="s">
-        <v>44</v>
-      </c>
-      <c r="B13">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14">
         <v>3</v>
       </c>
-      <c r="C13">
-        <v>8.399999999999999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" t="s">
-        <v>44</v>
-      </c>
-      <c r="B14">
+      <c r="C14">
+        <v>8.3999999999999986</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15">
         <v>4</v>
-      </c>
-      <c r="C14">
-        <v>8.4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" t="s">
-        <v>44</v>
-      </c>
-      <c r="B15">
-        <v>5</v>
       </c>
       <c r="C15">
         <v>8.4</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B16">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C16">
         <v>8.4</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B17">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C17">
         <v>8.4</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B18">
+        <v>7</v>
+      </c>
+      <c r="C18">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19">
+        <v>8</v>
+      </c>
+      <c r="C19">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20">
         <v>1</v>
       </c>
-      <c r="C18">
+      <c r="C20">
         <v>63.6</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
-        <v>45</v>
-      </c>
-      <c r="B19">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21">
         <v>2</v>
       </c>
-      <c r="C19">
+      <c r="C21">
         <v>41.52</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
-      <c r="A20" t="s">
-        <v>45</v>
-      </c>
-      <c r="B20">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22">
         <v>3</v>
       </c>
-      <c r="C20">
-        <v>8.399999999999999</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" t="s">
-        <v>45</v>
-      </c>
-      <c r="B21">
+      <c r="C22">
+        <v>8.3999999999999986</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23">
         <v>4</v>
-      </c>
-      <c r="C21">
-        <v>8.4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
-        <v>45</v>
-      </c>
-      <c r="B22">
-        <v>5</v>
-      </c>
-      <c r="C22">
-        <v>8.4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" t="s">
-        <v>45</v>
-      </c>
-      <c r="B23">
-        <v>6</v>
       </c>
       <c r="C23">
         <v>8.4</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B24">
+        <v>5</v>
+      </c>
+      <c r="C24">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>44</v>
+      </c>
+      <c r="B25">
+        <v>6</v>
+      </c>
+      <c r="C25">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>44</v>
+      </c>
+      <c r="B26">
         <v>7</v>
       </c>
-      <c r="C24">
+      <c r="C26">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>44</v>
+      </c>
+      <c r="B27">
+        <v>8</v>
+      </c>
+      <c r="C27">
         <v>8.4</v>
       </c>
     </row>
@@ -3446,263 +3740,296 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4">
-        <v>0.7575757575757576</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>0.75757575757575757</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B5">
         <v>2</v>
       </c>
       <c r="C5">
-        <v>0.7575757575757576</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>0.75757575757575757</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B6">
         <v>3</v>
       </c>
       <c r="C6">
-        <v>0.7575757575757576</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>0.75757575757575757</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B7">
         <v>4</v>
       </c>
       <c r="C7">
-        <v>0.7575757575757576</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>0.75757575757575757</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B8">
         <v>5</v>
       </c>
       <c r="C8">
-        <v>0.7575757575757576</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>0.75757575757575757</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B9">
         <v>6</v>
       </c>
       <c r="C9">
-        <v>0.7575757575757576</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>0.75757575757575757</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B10">
         <v>7</v>
       </c>
       <c r="C10">
-        <v>0.7575757575757576</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>0.75757575757575757</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B11">
+        <v>8</v>
+      </c>
+      <c r="C11">
+        <v>0.75757575757575757</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12">
         <v>1</v>
       </c>
-      <c r="C11">
-        <v>0.7220216606498195</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="s">
-        <v>44</v>
-      </c>
-      <c r="B12">
+      <c r="C12">
+        <v>0.72202166064981954</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13">
         <v>2</v>
       </c>
-      <c r="C12">
-        <v>0.7220216606498195</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>44</v>
-      </c>
-      <c r="B13">
+      <c r="C13">
+        <v>0.72202166064981954</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14">
         <v>3</v>
       </c>
-      <c r="C13">
-        <v>0.7220216606498195</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>44</v>
-      </c>
-      <c r="B14">
+      <c r="C14">
+        <v>0.72202166064981954</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15">
         <v>4</v>
       </c>
-      <c r="C14">
-        <v>0.7220216606498195</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
-        <v>44</v>
-      </c>
-      <c r="B15">
+      <c r="C15">
+        <v>0.72202166064981954</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16">
         <v>5</v>
       </c>
-      <c r="C15">
-        <v>0.7220216606498195</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" t="s">
-        <v>44</v>
-      </c>
-      <c r="B16">
+      <c r="C16">
+        <v>0.72202166064981954</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17">
         <v>6</v>
       </c>
-      <c r="C16">
-        <v>0.7220216606498195</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" t="s">
-        <v>44</v>
-      </c>
-      <c r="B17">
+      <c r="C17">
+        <v>0.72202166064981954</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18">
         <v>7</v>
       </c>
-      <c r="C17">
-        <v>0.7220216606498195</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" t="s">
-        <v>45</v>
-      </c>
-      <c r="B18">
+      <c r="C18">
+        <v>0.72202166064981954</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19">
+        <v>8</v>
+      </c>
+      <c r="C19">
+        <v>0.72202166064981954</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20">
         <v>1</v>
       </c>
-      <c r="C18">
+      <c r="C20">
         <v>0.78125</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
-        <v>45</v>
-      </c>
-      <c r="B19">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21">
         <v>2</v>
       </c>
-      <c r="C19">
-        <v>0.8020833333333334</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" t="s">
-        <v>45</v>
-      </c>
-      <c r="B20">
+      <c r="C21">
+        <v>0.80208333333333337</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22">
         <v>3</v>
       </c>
-      <c r="C20">
-        <v>0.8333333333333334</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" t="s">
-        <v>45</v>
-      </c>
-      <c r="B21">
+      <c r="C22">
+        <v>0.83333333333333337</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23">
         <v>4</v>
       </c>
-      <c r="C21">
-        <v>0.8333333333333334</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
-        <v>45</v>
-      </c>
-      <c r="B22">
+      <c r="C23">
+        <v>0.83333333333333337</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24">
         <v>5</v>
       </c>
-      <c r="C22">
-        <v>0.8333333333333334</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" t="s">
-        <v>45</v>
-      </c>
-      <c r="B23">
+      <c r="C24">
+        <v>0.83333333333333337</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>44</v>
+      </c>
+      <c r="B25">
         <v>6</v>
       </c>
-      <c r="C23">
-        <v>0.8333333333333334</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" t="s">
-        <v>45</v>
-      </c>
-      <c r="B24">
+      <c r="C25">
+        <v>0.83333333333333337</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>44</v>
+      </c>
+      <c r="B26">
         <v>7</v>
       </c>
-      <c r="C24">
-        <v>0.8333333333333334</v>
+      <c r="C26">
+        <v>0.83333333333333337</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>44</v>
+      </c>
+      <c r="B27">
+        <v>8</v>
+      </c>
+      <c r="C27">
+        <v>0.83333333333333337</v>
       </c>
     </row>
   </sheetData>
@@ -3711,280 +4038,313 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:M27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G1">
         <v>120</v>
       </c>
       <c r="H1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K1">
-        <v>277777.7777777778</v>
+        <v>277777.77777777781</v>
       </c>
       <c r="M1">
         <v>277777.77</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
-      <c r="A3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4">
-        <v>-0.6666666666666666</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>-0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B5">
         <v>2</v>
       </c>
       <c r="C5">
-        <v>-0.6666666666666666</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>-0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B6">
         <v>3</v>
       </c>
       <c r="C6">
-        <v>-0.6666666666666666</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>-0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B7">
         <v>4</v>
       </c>
       <c r="C7">
-        <v>-0.6666666666666666</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>-0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B8">
         <v>5</v>
       </c>
       <c r="C8">
-        <v>-0.6666666666666666</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>-0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B9">
         <v>6</v>
       </c>
       <c r="C9">
-        <v>-0.6666666666666666</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>-0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B10">
         <v>7</v>
       </c>
       <c r="C10">
-        <v>-0.6666666666666666</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>-0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B11">
+        <v>8</v>
+      </c>
+      <c r="C11">
+        <v>-0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12">
         <v>1</v>
       </c>
-      <c r="C11">
-        <v>0.4999999999999999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="A12" t="s">
-        <v>44</v>
-      </c>
-      <c r="B12">
+      <c r="C12">
+        <v>0.49999999999999989</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13">
         <v>2</v>
       </c>
-      <c r="C12">
-        <v>0.4999999999999999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
-      <c r="A13" t="s">
-        <v>44</v>
-      </c>
-      <c r="B13">
+      <c r="C13">
+        <v>0.49999999999999989</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14">
         <v>3</v>
       </c>
-      <c r="C13">
-        <v>0.4999999999999999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
-      <c r="A14" t="s">
-        <v>44</v>
-      </c>
-      <c r="B14">
+      <c r="C14">
+        <v>0.49999999999999989</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15">
         <v>4</v>
       </c>
-      <c r="C14">
-        <v>0.4999999999999999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
-      <c r="A15" t="s">
-        <v>44</v>
-      </c>
-      <c r="B15">
+      <c r="C15">
+        <v>0.49999999999999989</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16">
         <v>5</v>
       </c>
-      <c r="C15">
-        <v>0.4999999999999999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
-      <c r="A16" t="s">
-        <v>44</v>
-      </c>
-      <c r="B16">
+      <c r="C16">
+        <v>0.49999999999999989</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17">
         <v>6</v>
       </c>
-      <c r="C16">
-        <v>0.4999999999999999</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" t="s">
-        <v>44</v>
-      </c>
-      <c r="B17">
+      <c r="C17">
+        <v>0.49999999999999989</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18">
         <v>7</v>
       </c>
-      <c r="C17">
-        <v>0.4999999999999999</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" t="s">
-        <v>45</v>
-      </c>
-      <c r="B18">
+      <c r="C18">
+        <v>0.49999999999999989</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19">
+        <v>8</v>
+      </c>
+      <c r="C19">
+        <v>0.49999999999999989</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20">
         <v>1</v>
       </c>
-      <c r="C18">
+      <c r="C20">
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
-        <v>45</v>
-      </c>
-      <c r="B19">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21">
         <v>2</v>
       </c>
-      <c r="C19">
+      <c r="C21">
         <v>1.866666666666666</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
-      <c r="A20" t="s">
-        <v>45</v>
-      </c>
-      <c r="B20">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22">
         <v>3</v>
-      </c>
-      <c r="C20">
-        <v>1.666666666666667</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" t="s">
-        <v>45</v>
-      </c>
-      <c r="B21">
-        <v>4</v>
-      </c>
-      <c r="C21">
-        <v>1.666666666666667</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
-        <v>45</v>
-      </c>
-      <c r="B22">
-        <v>5</v>
       </c>
       <c r="C22">
         <v>1.666666666666667</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B23">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C23">
         <v>1.666666666666667</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B24">
+        <v>5</v>
+      </c>
+      <c r="C24">
+        <v>1.666666666666667</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>44</v>
+      </c>
+      <c r="B25">
+        <v>6</v>
+      </c>
+      <c r="C25">
+        <v>1.666666666666667</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>44</v>
+      </c>
+      <c r="B26">
         <v>7</v>
       </c>
-      <c r="C24">
+      <c r="C26">
+        <v>1.666666666666667</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>44</v>
+      </c>
+      <c r="B27">
+        <v>8</v>
+      </c>
+      <c r="C27">
         <v>1.666666666666667</v>
       </c>
     </row>
@@ -3994,8 +4354,17 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101005D7E641A7C6DC643BD6AA67ED4899C86" ma:contentTypeVersion="13" ma:contentTypeDescription="Opprett et nytt dokument." ma:contentTypeScope="" ma:versionID="d479b00409af6e981aacf0e296b2ead4">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1603ae16-0075-49fc-8eb8-355ddc15d60c" xmlns:ns3="5ad9d0b0-d7b7-41ff-b881-929c6caa05f1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="61f3bd59c311ef453d9cb08d9ad24a36" ns2:_="" ns3:_="">
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101005D7E641A7C6DC643BD6AA67ED4899C86" ma:contentTypeVersion="14" ma:contentTypeDescription="Opprett et nytt dokument." ma:contentTypeScope="" ma:versionID="4cd9b23512e5ed5f06fd653b087fad24">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1603ae16-0075-49fc-8eb8-355ddc15d60c" xmlns:ns3="5ad9d0b0-d7b7-41ff-b881-929c6caa05f1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a0fd60b66c697f161fb7f5dd5e750562" ns2:_="" ns3:_="">
     <xsd:import namespace="1603ae16-0075-49fc-8eb8-355ddc15d60c"/>
     <xsd:import namespace="5ad9d0b0-d7b7-41ff-b881-929c6caa05f1"/>
     <xsd:element name="properties">
@@ -4015,6 +4384,7 @@
                 <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -4067,6 +4437,11 @@
     <xsd:element name="MediaServiceSearchProperties" ma:index="19" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="20" nillable="true" ma:displayName="MediaServiceDateTaken" ma:description="" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -4210,19 +4585,14 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5031D97-AF5A-4BA2-9AED-4BD22FCE3ECC}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F4FF01D3-3A53-47BA-9DB5-E2D93441DE80}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C3949A8E-7E6D-42C5-90F6-5D6281755154}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{89BFF363-B781-408F-A55C-B39F3BBAF55C}"/>
 </file>